--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17099.18616114541</v>
+        <v>3402738.046067935</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17099.18616114541</v>
+        <v>3402738.046067935</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54591.3866454248</v>
+        <v>3402920.023949863</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54591.3866454248</v>
+        <v>3402920.023949863</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419985110.034417</v>
+        <v>55469396.82394779</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14681.92731195953</v>
+        <v>1405900.07136598</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27456.11490163903</v>
+        <v>2487962.052460121</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40235.93688840783</v>
+        <v>3570024.033554262</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53620.83701830823</v>
+        <v>4650739.873760095</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67005.73714820706</v>
+        <v>5731455.713966098</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>80390.3489279471</v>
+        <v>6812150.157612857</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>93775.06822808576</v>
+        <v>7892865.99781874</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>107159.7875282246</v>
+        <v>8973581.83802465</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>120544.506828363</v>
+        <v>10054297.6782307</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>133929.2261285015</v>
+        <v>11135013.5184366</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>147313.9454286403</v>
+        <v>12215729.35864251</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>160698.6647287791</v>
+        <v>13296445.19884841</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>174083.3840289181</v>
+        <v>14377161.03905428</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>187468.1033290576</v>
+        <v>15457876.87926004</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>200852.8226291972</v>
+        <v>16538592.71946584</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>207.0000000000287</v>
@@ -27052,19 +27052,19 @@
         <v>1.141852586646564e-10</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>-5.781114501878619e-11</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>207.0000000001579</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>-8.812117960769683e-12</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
